--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>beIngredinent-cs</t>
+    <t>beIngredientCS</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:18:33+00:00</t>
+    <t>2022-01-27T13:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:02:02+00:00</t>
+    <t>2022-01-27T13:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:14:27+00:00</t>
+    <t>2022-01-27T13:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Codes for role in ingredient level </t>
+    <t>Codes for ingredient</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:16:24+00:00</t>
+    <t>2022-01-27T14:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:15:49+00:00</t>
+    <t>2022-01-27T14:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:24:59+00:00</t>
+    <t>2022-01-27T14:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:26:36+00:00</t>
+    <t>2022-01-27T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>beIngredientCS</t>
+    <t>BeIngredientCS</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:37:11+00:00</t>
+    <t>2022-01-27T15:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>Level</t>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Tramadol</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>Rosuvastatin</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,6 +488,18 @@
       </c>
       <c r="D4" s="2"/>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:29:00+00:00</t>
+    <t>2022-01-27T15:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:35:43+00:00</t>
+    <t>2022-01-27T16:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T16:48:37+00:00</t>
+    <t>2022-01-27T17:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:34:32+00:00</t>
+    <t>2022-01-27T17:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:42:33+00:00</t>
+    <t>2022-01-27T17:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:55:49+00:00</t>
+    <t>2022-01-28T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T08:56:12+00:00</t>
+    <t>2022-01-28T10:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:40:14+00:00</t>
+    <t>2022-01-28T10:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:43:57+00:00</t>
+    <t>2022-01-28T10:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:49:11+00:00</t>
+    <t>2022-01-28T10:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:53:33+00:00</t>
+    <t>2022-02-02T15:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-beingredient-cs.xlsx
+++ b/branches/master/CodeSystem-beingredient-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:24+00:00</t>
+    <t>2022-02-03T09:51:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
